--- a/01_Documents/01_Phases/Phase5_送付フロー/TestOutput/請書_検証用_MultiItem.xlsx
+++ b/01_Documents/01_Phases/Phase5_送付フロー/TestOutput/請書_検証用_MultiItem.xlsx
@@ -86,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -123,9 +123,6 @@
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -496,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +508,7 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,10 +518,11 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>セルジェンテック株式会社　御中</t>
+          <t>テストサプライヤー株式会社</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,6 +536,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="F5" t="inlineStr">
         <is>
@@ -545,10 +545,11 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{{OrderDate}}</t>
-        </is>
-      </c>
-    </row>
+          <t>2026/02/06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
@@ -556,6 +557,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
@@ -590,6 +592,11 @@
       <c r="G9" s="4" t="inlineStr">
         <is>
           <t>納期・備考</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>見積番号</t>
         </is>
       </c>
     </row>
@@ -602,24 +609,30 @@
           <t>DNA抽出キット</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>メーカーA</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>箱</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>50000</v>
+      <c r="E10" s="8">
+        <f>IF(D10&lt;&gt;"",F10/D10,"")</f>
+        <v/>
       </c>
       <c r="F10" s="7" t="n">
         <v>100000</v>
       </c>
-      <c r="G10" s="9" t="inlineStr"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>Q-20260206-001</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -627,24 +640,30 @@
           <t>NGS解析サービス</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>メーカーB</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>式</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="6">
+        <f>IF(D11&lt;&gt;"",F11/D11,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="6" t="n">
         <v>900000</v>
       </c>
-      <c r="F11" s="7" t="n">
-        <v>900000</v>
-      </c>
       <c r="G11" s="9" t="n"/>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>Q-20260206-002</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
@@ -652,321 +671,374 @@
           <t>サンプル輸送費</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>メーカーC</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>回</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="6">
+        <f>IF(D12&lt;&gt;"",F12/D12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>試薬A</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>メーカーD</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <f>IF(D13&lt;&gt;"",F13/D13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>Q-20260206-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>試薬B</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>メーカーE</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <f>IF(D14&lt;&gt;"",F14/D14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="G12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>試薬A</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>本</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>試薬B</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>本</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>15000</v>
-      </c>
       <c r="G14" s="9" t="n"/>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>Q-20260206-005</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="E15" s="6">
+        <f>IF(D15&lt;&gt;"",F15/D15,"")</f>
+        <v/>
+      </c>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="9" t="n"/>
+      <c r="H15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="E16" s="6">
+        <f>IF(D16&lt;&gt;"",F16/D16,"")</f>
+        <v/>
+      </c>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="9" t="n"/>
+      <c r="H16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="E17" s="6">
+        <f>IF(D17&lt;&gt;"",F17/D17,"")</f>
+        <v/>
+      </c>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="9" t="n"/>
+      <c r="H17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="E18" s="6">
+        <f>IF(D18&lt;&gt;"",F18/D18,"")</f>
+        <v/>
+      </c>
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="9" t="n"/>
+      <c r="H18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
+      <c r="E19" s="6">
+        <f>IF(D19&lt;&gt;"",F19/D19,"")</f>
+        <v/>
+      </c>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="9" t="n"/>
+      <c r="H19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="E20" s="6">
+        <f>IF(D20&lt;&gt;"",F20/D20,"")</f>
+        <v/>
+      </c>
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="9" t="n"/>
+      <c r="H20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6" t="n"/>
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6">
+        <f>IF(D21&lt;&gt;"",F21/D21,"")</f>
+        <v/>
+      </c>
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="9" t="n"/>
+      <c r="H21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="n"/>
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="E22" s="6">
+        <f>IF(D22&lt;&gt;"",F22/D22,"")</f>
+        <v/>
+      </c>
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="9" t="n"/>
+      <c r="H22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="n"/>
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
+      <c r="E23" s="6">
+        <f>IF(D23&lt;&gt;"",F23/D23,"")</f>
+        <v/>
+      </c>
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="9" t="n"/>
+      <c r="H23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
+      <c r="E24" s="6">
+        <f>IF(D24&lt;&gt;"",F24/D24,"")</f>
+        <v/>
+      </c>
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="9" t="n"/>
+      <c r="H24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr"/>
+      <c r="A25" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="E25" s="6">
+        <f>IF(D25&lt;&gt;"",F25/D25,"")</f>
+        <v/>
+      </c>
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="9" t="n"/>
+      <c r="H25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr"/>
+      <c r="A26" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="B26" s="6" t="n"/>
       <c r="C26" s="6" t="n"/>
       <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="E26" s="6">
+        <f>IF(D26&lt;&gt;"",F26/D26,"")</f>
+        <v/>
+      </c>
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="9" t="n"/>
+      <c r="H26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr"/>
+      <c r="A27" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="E27" s="6">
+        <f>IF(D27&lt;&gt;"",F27/D27,"")</f>
+        <v/>
+      </c>
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="9" t="n"/>
+      <c r="H27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr"/>
+      <c r="A28" s="6" t="n">
+        <v>19</v>
+      </c>
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="n"/>
       <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="E28" s="6">
+        <f>IF(D28&lt;&gt;"",F28/D28,"")</f>
+        <v/>
+      </c>
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="9" t="n"/>
+      <c r="H28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr"/>
+      <c r="A29" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="E29" s="6">
+        <f>IF(D29&lt;&gt;"",F29/D29,"")</f>
+        <v/>
+      </c>
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="9" t="n"/>
+      <c r="H29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr"/>
+      <c r="A30" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="n"/>
       <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
+      <c r="E30" s="6">
+        <f>IF(D30&lt;&gt;"",F30/D30,"")</f>
+        <v/>
+      </c>
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="9" t="n"/>
+      <c r="H30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
-      <c r="F31" s="6" t="n"/>
-      <c r="G31" s="9" t="n"/>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="F31" s="11">
+        <f>SUM(F10:F30)</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
-      <c r="D32" s="6" t="n"/>
-      <c r="E32" s="6" t="n"/>
-      <c r="F32" s="6" t="n"/>
-      <c r="G32" s="9" t="n"/>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>消費税（10%）</t>
+        </is>
+      </c>
+      <c r="F32" s="11">
+        <f>F31*0.1</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="n"/>
-      <c r="D33" s="6" t="n"/>
-      <c r="E33" s="6" t="n"/>
-      <c r="F33" s="6" t="n"/>
-      <c r="G33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="n"/>
-      <c r="D34" s="6" t="n"/>
-      <c r="E34" s="6" t="n"/>
-      <c r="F34" s="6" t="n"/>
-      <c r="G34" s="9" t="n"/>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="F33" s="13">
+        <f>F31+F32</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
-      <c r="E35" s="10" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="F35" s="11">
-        <f>SUM(F10:F30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" s="10" t="inlineStr">
-        <is>
-          <t>消費税（10%）</t>
-        </is>
-      </c>
-      <c r="F36" s="11">
-        <f>F31*0.1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>合計</t>
-        </is>
-      </c>
-      <c r="F37" s="13">
-        <f>F31+F32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38"/>
-    <row r="39">
-      <c r="B39" s="16" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>受領担当者：</t>
         </is>
       </c>
-      <c r="C39" s="17" t="inlineStr"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" t="inlineStr">
+      <c r="C35" s="16" t="inlineStr"/>
+      <c r="D35" s="15" t="n"/>
+      <c r="E35" s="15" t="n"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>日付：</t>
         </is>
       </c>
-      <c r="G39" s="14" t="inlineStr"/>
+      <c r="G35" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
